--- a/output/CSHG_01221890000124.xlsx
+++ b/output/CSHG_01221890000124.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>9.745925234833031</v>
+        <v>9.748353347316206</v>
       </c>
       <c r="C192">
-        <v>0.03666342708820025</v>
+        <v>0.03689766800772598</v>
       </c>
     </row>
   </sheetData>

--- a/output/CSHG_01221890000124.xlsx
+++ b/output/CSHG_01221890000124.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CSHG VERDE FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>-0.003360852721463914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.04037232849304129</v>
-      </c>
-      <c r="C3">
         <v>0.04388065764216154</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.05904022647465412</v>
-      </c>
-      <c r="C4">
         <v>0.01794347799374174</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.05397145281500149</v>
-      </c>
-      <c r="C5">
         <v>-0.004786195588174835</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.04868239917383055</v>
-      </c>
-      <c r="C6">
         <v>-0.005018213374797464</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.0311048244861174</v>
-      </c>
-      <c r="C7">
         <v>-0.01676158072411726</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.04122629778109577</v>
-      </c>
-      <c r="C8">
         <v>0.009816143862989568</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.05631532659277871</v>
-      </c>
-      <c r="C9">
         <v>0.01449159404044864</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1206184614320189</v>
-      </c>
-      <c r="C10">
         <v>0.06087494256724901</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.1279033456570657</v>
-      </c>
-      <c r="C11">
         <v>0.00650077120426662</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.1680501145512345</v>
-      </c>
-      <c r="C12">
         <v>0.03559415711350788</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.2026366056307625</v>
-      </c>
-      <c r="C13">
         <v>0.02961045133993756</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.2743702962754289</v>
-      </c>
-      <c r="C14">
         <v>0.05964702081144724</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.311347278155006</v>
-      </c>
-      <c r="C15">
         <v>0.02901588493364038</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.3156441752850836</v>
-      </c>
-      <c r="C16">
         <v>0.0032767041970172</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.359694192333897</v>
-      </c>
-      <c r="C17">
         <v>0.03348171023466007</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.3769172565904149</v>
-      </c>
-      <c r="C18">
         <v>0.01266686608917156</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.3864772972573434</v>
-      </c>
-      <c r="C19">
         <v>0.006943075643195629</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.410656986411817</v>
-      </c>
-      <c r="C20">
         <v>0.01743965747026999</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.4299783340495504</v>
-      </c>
-      <c r="C21">
         <v>0.01369670148295921</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.4384991602351167</v>
-      </c>
-      <c r="C22">
         <v>0.005958709990686373</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.4760745203056083</v>
-      </c>
-      <c r="C23">
         <v>0.02612122489133051</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.517365178856386</v>
-      </c>
-      <c r="C24">
         <v>0.0279732885994326</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.5362539388708736</v>
-      </c>
-      <c r="C25">
         <v>0.01244839428088351</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.5714068658683933</v>
-      </c>
-      <c r="C26">
         <v>0.02288223717971816</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.571332933587517</v>
-      </c>
-      <c r="C27">
         <v>-4.704846496605963e-05</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.6138077550453211</v>
-      </c>
-      <c r="C28">
         <v>0.02703107696013829</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.6326018817402872</v>
-      </c>
-      <c r="C29">
         <v>0.01164582747617193</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.6921261103746692</v>
-      </c>
-      <c r="C30">
         <v>0.03645973295763416</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.7696082989564395</v>
-      </c>
-      <c r="C31">
         <v>0.04578984279405396</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.8342891263329182</v>
-      </c>
-      <c r="C32">
         <v>0.03655092904719193</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.8873374868518125</v>
-      </c>
-      <c r="C33">
         <v>0.02892039196947516</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.892375846858267</v>
-      </c>
-      <c r="C34">
         <v>0.002669559652979103</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.9283836015226088</v>
-      </c>
-      <c r="C35">
         <v>0.01902780291987027</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.9693220190545506</v>
-      </c>
-      <c r="C36">
         <v>0.02122939517823008</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>1.008430749328683</v>
-      </c>
-      <c r="C37">
         <v>0.01985898187078017</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>1.022993345024687</v>
-      </c>
-      <c r="C38">
         <v>0.007250733290590894</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>1.112013255437694</v>
-      </c>
-      <c r="C39">
         <v>0.04400405499698801</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>1.05476979210372</v>
-      </c>
-      <c r="C40">
         <v>-0.02710374245360092</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>1.129209610004191</v>
-      </c>
-      <c r="C41">
         <v>0.03622781402886877</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>1.185623544327773</v>
-      </c>
-      <c r="C42">
         <v>0.02649524690219285</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>1.281211375160179</v>
-      </c>
-      <c r="C43">
         <v>0.04373481017830327</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>1.224984026511816</v>
-      </c>
-      <c r="C44">
         <v>-0.02464802221337981</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>1.146381483137878</v>
-      </c>
-      <c r="C45">
         <v>-0.03532723940367577</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.9892837642876853</v>
-      </c>
-      <c r="C46">
         <v>-0.07319189067011789</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.8121247106293468</v>
-      </c>
-      <c r="C47">
         <v>-0.08905670314047676</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.8519348304258634</v>
-      </c>
-      <c r="C48">
         <v>0.02196875279223498</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.8791457078204257</v>
-      </c>
-      <c r="C49">
         <v>0.01469321541314983</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.9628866534824394</v>
-      </c>
-      <c r="C50">
         <v>0.04456330624789206</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.9818979147298761</v>
-      </c>
-      <c r="C51">
         <v>0.009685358659761611</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>1.021089737244615</v>
-      </c>
-      <c r="C52">
         <v>0.01977489467215099</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>1.25160844894931</v>
-      </c>
-      <c r="C53">
         <v>0.1140566435308139</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>1.358741468332373</v>
-      </c>
-      <c r="C54">
         <v>0.04758066147471385</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>1.412545296236038</v>
-      </c>
-      <c r="C55">
         <v>0.02281039640249505</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>1.537117144549644</v>
-      </c>
-      <c r="C56">
         <v>0.05163502982014845</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>1.630489135264761</v>
-      </c>
-      <c r="C57">
         <v>0.03680239634015425</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>1.678121690170841</v>
-      </c>
-      <c r="C58">
         <v>0.01810786985108992</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.698639570776751</v>
-      </c>
-      <c r="C59">
         <v>0.007661295108887023</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.7649687146808</v>
-      </c>
-      <c r="C60">
         <v>0.02457873390071041</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>1.825583666401933</v>
-      </c>
-      <c r="C61">
         <v>0.02192247290151728</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.930437466742232</v>
-      </c>
-      <c r="C62">
         <v>0.0371087225577782</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.892455511463107</v>
-      </c>
-      <c r="C63">
         <v>-0.01296118948456848</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.913096099077699</v>
-      </c>
-      <c r="C64">
         <v>0.007136008672489647</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.864810188584404</v>
-      </c>
-      <c r="C65">
         <v>-0.01657546090174711</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.89987049298527</v>
-      </c>
-      <c r="C66">
         <v>0.01223826435013819</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.956179417013128</v>
-      </c>
-      <c r="C67">
         <v>0.01941773750381892</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.998666755514749</v>
-      </c>
-      <c r="C68">
         <v>0.01437238154663456</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>2.008416098096561</v>
-      </c>
-      <c r="C69">
         <v>0.003251225753539311</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>2.021443071814484</v>
-      </c>
-      <c r="C70">
         <v>0.004330176841616407</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>2.107221267775584</v>
-      </c>
-      <c r="C71">
         <v>0.02838981040592192</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>2.175258426686728</v>
-      </c>
-      <c r="C72">
         <v>0.02189646409051882</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>2.214178043183789</v>
-      </c>
-      <c r="C73">
         <v>0.01225714926695676</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>2.229612792863255</v>
-      </c>
-      <c r="C74">
         <v>0.004802082981121059</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>2.241639090954779</v>
-      </c>
-      <c r="C75">
         <v>0.003723758500739915</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>2.361625762096303</v>
-      </c>
-      <c r="C76">
         <v>0.0370141979951828</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>2.418955504255078</v>
-      </c>
-      <c r="C77">
         <v>0.01705417146821953</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>2.430120195839233</v>
-      </c>
-      <c r="C78">
         <v>0.003265527021413694</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>2.423446236245451</v>
-      </c>
-      <c r="C79">
         <v>-0.001945692632543405</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>2.384656017408016</v>
-      </c>
-      <c r="C80">
         <v>-0.01133075157621777</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>2.467280247568666</v>
-      </c>
-      <c r="C81">
         <v>0.02441141130315638</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>2.508071135659333</v>
-      </c>
-      <c r="C82">
         <v>0.01176452007860362</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>2.544880945334183</v>
-      </c>
-      <c r="C83">
         <v>0.01049289146410981</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>2.535179025239652</v>
-      </c>
-      <c r="C84">
         <v>-0.002736881786481793</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>2.611513479098277</v>
-      </c>
-      <c r="C85">
         <v>0.021592811372106</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>2.710972033761049</v>
-      </c>
-      <c r="C86">
         <v>0.02753930041750907</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>2.80846981614538</v>
-      </c>
-      <c r="C87">
         <v>0.02627284212797432</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>2.861575282369575</v>
-      </c>
-      <c r="C88">
         <v>0.01394404282766337</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>2.959932578228114</v>
-      </c>
-      <c r="C89">
         <v>0.02547077000093712</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>2.925400182648891</v>
-      </c>
-      <c r="C90">
         <v>-0.008720450385717005</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>2.963202213507209</v>
-      </c>
-      <c r="C91">
         <v>0.00963010880404247</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>3.055299811596443</v>
-      </c>
-      <c r="C92">
         <v>0.02323817789951566</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>3.07281587697819</v>
-      </c>
-      <c r="C93">
         <v>0.004319302196019725</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>3.147216562213729</v>
-      </c>
-      <c r="C94">
         <v>0.01826762797112758</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>3.192589264513086</v>
-      </c>
-      <c r="C95">
         <v>0.01094051916959393</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>3.284331393844146</v>
-      </c>
-      <c r="C96">
         <v>0.0218819740124756</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>3.317458411725069</v>
-      </c>
-      <c r="C97">
         <v>0.007732132469612685</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>3.377689021413164</v>
-      </c>
-      <c r="C98">
         <v>0.01395047825464291</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>3.420077411184196</v>
-      </c>
-      <c r="C99">
         <v>0.009682823417490827</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>3.493444002814448</v>
-      </c>
-      <c r="C100">
         <v>0.0165984856836694</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>3.509539821731427</v>
-      </c>
-      <c r="C101">
         <v>0.003582067320055282</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>3.595659675959428</v>
-      </c>
-      <c r="C102">
         <v>0.01909725994944989</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>3.572107349977557</v>
-      </c>
-      <c r="C103">
         <v>-0.005124906464479273</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>3.65728537455922</v>
-      </c>
-      <c r="C104">
         <v>0.018629926653424</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>3.785963742174908</v>
-      </c>
-      <c r="C105">
         <v>0.02762947882013056</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>3.765749069170536</v>
-      </c>
-      <c r="C106">
         <v>-0.004223741359809186</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>3.835046727905995</v>
-      </c>
-      <c r="C107">
         <v>0.01454076950541583</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>4.014265949400665</v>
-      </c>
-      <c r="C108">
         <v>0.03706669895459047</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>4.099116531878859</v>
-      </c>
-      <c r="C109">
         <v>0.0169218352864462</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>4.096023975436164</v>
-      </c>
-      <c r="C110">
         <v>-0.0006064886776682155</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>4.032091519121352</v>
-      </c>
-      <c r="C111">
         <v>-0.0125455564226109</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>3.999523840835317</v>
-      </c>
-      <c r="C112">
         <v>-0.00647199641784757</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>3.952215035828142</v>
-      </c>
-      <c r="C113">
         <v>-0.009462662148095768</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>3.997077690639399</v>
-      </c>
-      <c r="C114">
         <v>0.009059108800140159</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>3.994249955805252</v>
-      </c>
-      <c r="C115">
         <v>-0.000565877700769879</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>4.000291013919588</v>
-      </c>
-      <c r="C116">
         <v>0.001209602676637056</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>3.912074687136813</v>
-      </c>
-      <c r="C117">
         <v>-0.01764223852915814</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>4.240499540226462</v>
-      </c>
-      <c r="C118">
         <v>0.0668607205728553</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>4.20717942827788</v>
-      </c>
-      <c r="C119">
         <v>-0.006358193850188321</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>4.387304057114313</v>
-      </c>
-      <c r="C120">
         <v>0.03459159249597898</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>4.548060221549677</v>
-      </c>
-      <c r="C121">
         <v>0.02983981648911649</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>4.673348545686482</v>
-      </c>
-      <c r="C122">
         <v>0.02258236557169324</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>4.946560589159203</v>
-      </c>
-      <c r="C123">
         <v>0.04815710532723183</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>5.249225865816679</v>
-      </c>
-      <c r="C124">
         <v>0.05089753515826367</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>5.143258019180228</v>
-      </c>
-      <c r="C125">
         <v>-0.01695695577528988</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>5.380626722798524</v>
-      </c>
-      <c r="C126">
         <v>0.03863889533488463</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>5.370143448732128</v>
-      </c>
-      <c r="C127">
         <v>-0.001642985011008014</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>5.71456791176506</v>
-      </c>
-      <c r="C128">
         <v>0.05406855682370604</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>5.693958460958383</v>
-      </c>
-      <c r="C129">
         <v>-0.003069363669785163</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>5.786177196281428</v>
-      </c>
-      <c r="C130">
         <v>0.01377641284464159</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>5.893394871800661</v>
-      </c>
-      <c r="C131">
         <v>0.01579942173894078</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>6.064229537678842</v>
-      </c>
-      <c r="C132">
         <v>0.02478237052356125</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>6.137527517800717</v>
-      </c>
-      <c r="C133">
         <v>0.01037593409598636</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>6.215321809374959</v>
-      </c>
-      <c r="C134">
         <v>0.01089933333079651</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>6.269566379500166</v>
-      </c>
-      <c r="C135">
         <v>0.007517969614983189</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>6.08981904340812</v>
-      </c>
-      <c r="C136">
         <v>-0.02472600519873158</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>6.214469668551267</v>
-      </c>
-      <c r="C137">
         <v>0.01758163704601778</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>6.324039807515264</v>
-      </c>
-      <c r="C138">
         <v>0.01518755279291373</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>6.453120513721585</v>
-      </c>
-      <c r="C139">
         <v>0.01762424967623333</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>6.588693256136627</v>
-      </c>
-      <c r="C140">
         <v>0.01819006443884086</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>6.712667008466038</v>
-      </c>
-      <c r="C141">
         <v>0.01633664033384918</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>6.805246115888989</v>
-      </c>
-      <c r="C142">
         <v>0.01200351413088718</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>6.890232304574611</v>
-      </c>
-      <c r="C143">
         <v>0.01088834194640165</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>6.971540157980732</v>
-      </c>
-      <c r="C144">
         <v>0.01030487446598749</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>7.215602299335679</v>
-      </c>
-      <c r="C145">
         <v>0.0306166859249406</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>7.224579506698424</v>
-      </c>
-      <c r="C146">
         <v>0.001092702279840374</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>7.335934503207174</v>
-      </c>
-      <c r="C147">
         <v>0.01353929357945383</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>7.428644019530493</v>
-      </c>
-      <c r="C148">
         <v>0.01112167043630796</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>7.465268366477689</v>
-      </c>
-      <c r="C149">
         <v>0.004345224079025156</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>7.39034775651891</v>
-      </c>
-      <c r="C150">
         <v>-0.008850352607303491</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>7.428003492590346</v>
-      </c>
-      <c r="C151">
         <v>0.00448798275878115</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>7.587571766638279</v>
-      </c>
-      <c r="C152">
         <v>0.01893310487925404</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>7.619237147735758</v>
-      </c>
-      <c r="C153">
         <v>0.00368734980713592</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>7.663581365288351</v>
-      </c>
-      <c r="C154">
         <v>0.005144796087231729</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>7.630482374062135</v>
-      </c>
-      <c r="C155">
         <v>-0.003820474447072342</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>7.593144296927939</v>
-      </c>
-      <c r="C156">
         <v>-0.004326302460962217</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>7.646514767019188</v>
-      </c>
-      <c r="C157">
         <v>0.006210819724082661</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>7.910088892529357</v>
-      </c>
-      <c r="C158">
         <v>0.03048327940357343</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>7.92079829060806</v>
-      </c>
-      <c r="C159">
         <v>0.001201940654899758</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>7.972503317751524</v>
-      </c>
-      <c r="C160">
         <v>0.005796008995955004</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>7.956660044450851</v>
-      </c>
-      <c r="C161">
         <v>-0.001765758422103691</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>7.795349085124624</v>
-      </c>
-      <c r="C162">
         <v>-0.01801016880462813</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>7.820932776219644</v>
-      </c>
-      <c r="C163">
         <v>0.002908774949966331</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>7.918155612829411</v>
-      </c>
-      <c r="C164">
         <v>0.01102183171283988</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>7.980128784330359</v>
-      </c>
-      <c r="C165">
         <v>0.006949101831301929</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>7.953097872511751</v>
-      </c>
-      <c r="C166">
         <v>-0.00301008064224817</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>8.29054522126312</v>
-      </c>
-      <c r="C167">
         <v>0.03769056851119834</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>8.342042461951657</v>
-      </c>
-      <c r="C168">
         <v>0.005542972932382595</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>8.329996191855509</v>
-      </c>
-      <c r="C169">
         <v>-0.00128946856591694</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>8.681274550661644</v>
-      </c>
-      <c r="C170">
         <v>0.03765042895867188</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>8.690079141581723</v>
-      </c>
-      <c r="C171">
         <v>0.0009094454324174439</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>8.730506694401942</v>
-      </c>
-      <c r="C172">
         <v>0.004172055999701607</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>8.814207796002922</v>
-      </c>
-      <c r="C173">
         <v>0.008601926315834563</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>8.940152368345805</v>
-      </c>
-      <c r="C174">
         <v>0.01283288218068668</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>9.088369188755163</v>
-      </c>
-      <c r="C175">
         <v>0.0149109203679163</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>9.131924426875194</v>
-      </c>
-      <c r="C176">
         <v>0.00431737154986167</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>9.149709458776666</v>
-      </c>
-      <c r="C177">
         <v>0.001755345890095406</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>9.281825968478779</v>
-      </c>
-      <c r="C178">
         <v>0.0130167774987755</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>9.373730913448354</v>
-      </c>
-      <c r="C179">
         <v>0.008938582042852028</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>9.373997345986918</v>
-      </c>
-      <c r="C180">
         <v>2.568338631370182e-05</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>9.573729521228543</v>
-      </c>
-      <c r="C181">
         <v>0.0192531546500625</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>9.553830361214487</v>
-      </c>
-      <c r="C182">
         <v>-0.001881943355379501</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>9.252032893732872</v>
-      </c>
-      <c r="C183">
         <v>-0.02859601274156598</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>8.077110675195801</v>
-      </c>
-      <c r="C184">
         <v>-0.1146038284031754</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>8.858513157217997</v>
-      </c>
-      <c r="C185">
         <v>0.08608493495154401</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>9.107038491891061</v>
-      </c>
-      <c r="C186">
         <v>0.0252092106294044</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>9.198980329509739</v>
-      </c>
-      <c r="C187">
         <v>0.0090968128490303</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>9.407891736848539</v>
-      </c>
-      <c r="C188">
         <v>0.02048355821751469</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>9.546257432119701</v>
-      </c>
-      <c r="C189">
         <v>0.01329430577965041</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>9.41739872853174</v>
-      </c>
-      <c r="C190">
         <v>-0.01221842956303232</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>9.365876671289918</v>
-      </c>
-      <c r="C191">
         <v>-0.004945769916698151</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>9.748353347316206</v>
-      </c>
-      <c r="C192">
-        <v>0.03689766800772598</v>
+        <v>0.03010507382927607</v>
       </c>
     </row>
   </sheetData>
